--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
@@ -938,16 +938,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（滞在管理システム）</t>
-    <rPh sb="1" eb="3">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインが成功した場合メニュー画面に移動する</t>
     <rPh sb="5" eb="7">
       <t>セイコウ</t>
@@ -1555,6 +1545,16 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滞在管理システム</t>
+    <rPh sb="0" eb="2">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2287,9 +2287,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2317,17 +2314,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2338,17 +2341,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2359,20 +2362,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11933,8 +11933,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11948,7 +11948,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -11967,7 +11967,7 @@
         <v>75</v>
       </c>
       <c r="P1" s="62">
-        <v>41789</v>
+        <v>41792</v>
       </c>
       <c r="Q1" s="63"/>
     </row>
@@ -11987,7 +11987,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P2" s="74"/>
       <c r="Q2" s="75"/>
@@ -12131,19 +12131,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
+      <c r="D10" s="110" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -12152,17 +12152,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -12171,17 +12171,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -12192,7 +12192,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="81"/>
       <c r="G13" s="81"/>
@@ -12721,40 +12721,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12840,10 +12840,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>140</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -13458,7 +13458,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13473,40 +13473,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13593,17 +13593,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="99"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="96" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="97"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="98"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -13618,18 +13618,18 @@
       <c r="E8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="97"/>
+      <c r="G8" s="98"/>
       <c r="H8" s="26"/>
       <c r="I8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="97"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="2"/>
       <c r="M8" s="54"/>
       <c r="N8" s="53"/>
@@ -13644,18 +13644,18 @@
       <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="110"/>
+      <c r="F9" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="109"/>
       <c r="H9" s="26"/>
       <c r="I9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="110"/>
+      <c r="J9" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="109"/>
       <c r="L9" s="2"/>
       <c r="M9" s="30"/>
       <c r="N9" s="26"/>
@@ -13668,16 +13668,16 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="110"/>
+      <c r="F10" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="109"/>
       <c r="H10" s="26"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="110"/>
+      <c r="J10" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="109"/>
       <c r="L10" s="2"/>
       <c r="M10" s="30"/>
       <c r="N10" s="26"/>
@@ -13690,14 +13690,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="110"/>
+      <c r="G11" s="109"/>
       <c r="H11" s="26"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="109"/>
       <c r="L11" s="2"/>
       <c r="M11" s="30"/>
       <c r="N11" s="26"/>
@@ -13710,12 +13710,12 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
       <c r="H12" s="26"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="2"/>
       <c r="M12" s="30"/>
       <c r="N12" s="26"/>
@@ -13730,14 +13730,14 @@
       <c r="E13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="110"/>
+      <c r="F13" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="109"/>
       <c r="H13" s="26"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="109"/>
       <c r="L13" s="2"/>
       <c r="M13" s="30"/>
       <c r="N13" s="26"/>
@@ -13750,14 +13750,14 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
-      <c r="F14" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="110"/>
+      <c r="F14" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="109"/>
       <c r="H14" s="26"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="109"/>
       <c r="L14" s="2"/>
       <c r="M14" s="30"/>
       <c r="N14" s="26"/>
@@ -13770,12 +13770,12 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
       <c r="H15" s="26"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="109"/>
       <c r="L15" s="2"/>
       <c r="M15" s="30"/>
       <c r="N15" s="26"/>
@@ -13788,12 +13788,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
       <c r="H16" s="2"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="109"/>
       <c r="L16" s="2"/>
       <c r="M16" s="30"/>
       <c r="N16" s="26"/>
@@ -13806,12 +13806,12 @@
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
       <c r="H17" s="2"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="109"/>
       <c r="L17" s="2"/>
       <c r="M17" s="30"/>
       <c r="N17" s="26"/>
@@ -14216,15 +14216,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
@@ -14241,6 +14232,15 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14278,40 +14278,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14354,7 +14354,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15004,40 +15004,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="56" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N1" s="56" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15062,7 +15062,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>19</v>
@@ -15085,7 +15085,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15124,22 +15124,22 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="96" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="96" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="97"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="98"/>
       <c r="M7" s="56" t="s">
         <v>23</v>
       </c>
@@ -15161,20 +15161,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="93" t="s">
+      <c r="E8" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="92"/>
+      <c r="G8" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="93" t="s">
+      <c r="H8" s="92"/>
+      <c r="I8" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="92"/>
       <c r="M8" s="23" t="s">
         <v>31</v>
       </c>
@@ -15197,18 +15197,18 @@
         <f t="shared" ref="D9:D20" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="93" t="s">
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="93" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="95"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="92"/>
       <c r="M9" s="23" t="s">
         <v>32</v>
       </c>
@@ -15231,18 +15231,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="93" t="s">
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="93" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="23" t="s">
         <v>33</v>
       </c>
@@ -15265,20 +15265,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="92"/>
+      <c r="I11" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>66</v>
@@ -15299,20 +15299,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="93" t="s">
+      <c r="E12" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="92"/>
+      <c r="G12" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="23" t="s">
         <v>31</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>34</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" si="1"/>
@@ -15335,18 +15335,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="92"/>
+      <c r="I13" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>36</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" si="1"/>
@@ -15369,18 +15369,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="92"/>
+      <c r="I14" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="92"/>
       <c r="M14" s="23" t="s">
         <v>33</v>
       </c>
@@ -15403,18 +15403,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="92"/>
+      <c r="I15" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="92"/>
       <c r="M15" s="23" t="s">
         <v>33</v>
       </c>
@@ -15437,28 +15437,28 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="92"/>
+      <c r="G16" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="92"/>
       <c r="M16" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>34</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="1"/>
@@ -15473,28 +15473,28 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="93" t="s">
+      <c r="E17" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="92"/>
+      <c r="I17" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="92"/>
       <c r="M17" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>34</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" si="1"/>
@@ -15509,20 +15509,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="92"/>
+      <c r="I18" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="92"/>
       <c r="M18" s="23" t="s">
         <v>33</v>
       </c>
@@ -15545,19 +15545,19 @@
         <v>12</v>
       </c>
       <c r="E19" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="99" t="s">
+      <c r="H19" s="95"/>
+      <c r="I19" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="100"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="95"/>
       <c r="M19" s="23" t="s">
         <v>31</v>
       </c>
@@ -15582,16 +15582,16 @@
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="58"/>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="100"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="95"/>
       <c r="M20" s="23" t="s">
         <v>32</v>
       </c>
@@ -15611,14 +15611,14 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="32" t="s">
@@ -15920,6 +15920,38 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="46">
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -15934,38 +15966,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -16011,40 +16011,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16111,21 +16111,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="96" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="107" t="s">
+      <c r="F6" s="98"/>
+      <c r="G6" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>67</v>
@@ -16137,21 +16137,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="104"/>
+      <c r="E7" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106" t="s">
+      <c r="F7" s="106"/>
+      <c r="G7" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -16161,21 +16161,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="103" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="104"/>
+      <c r="E8" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106" t="s">
+      <c r="F8" s="106"/>
+      <c r="G8" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16185,21 +16185,21 @@
     <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104" t="s">
+      <c r="D9" s="104"/>
+      <c r="E9" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="108" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16209,21 +16209,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
+      <c r="C10" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="104"/>
+      <c r="E10" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="106"/>
+      <c r="G10" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16233,21 +16233,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="106"/>
+      <c r="G11" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16257,21 +16257,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104" t="s">
+      <c r="F12" s="106"/>
+      <c r="G12" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16281,15 +16281,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16299,15 +16299,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>69</v>
@@ -16319,15 +16319,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -16756,16 +16756,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -16782,13 +16779,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16823,40 +16823,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17575,40 +17575,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18327,40 +18327,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19078,40 +19078,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19197,10 +19197,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>127</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>128</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -19830,40 +19830,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="str">
         <f>表紙_基本!D10</f>
-        <v>（滞在管理システム）</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" s="19">
-        <v>41789</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19949,10 +19949,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>133</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2287,6 +2287,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2314,14 +2317,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2332,17 +2347,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2353,26 +2368,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11933,7 +11933,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -12131,19 +12131,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -12152,17 +12152,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -12171,17 +12171,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -12721,26 +12721,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
@@ -13473,26 +13473,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -13593,17 +13593,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="97"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="97" t="s">
+      <c r="I7" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="97"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -13618,18 +13618,18 @@
       <c r="E8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="98"/>
+      <c r="G8" s="97"/>
       <c r="H8" s="26"/>
       <c r="I8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="98"/>
+      <c r="K8" s="97"/>
       <c r="L8" s="2"/>
       <c r="M8" s="54"/>
       <c r="N8" s="53"/>
@@ -13644,18 +13644,18 @@
       <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="26"/>
       <c r="I9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="109"/>
+      <c r="K9" s="110"/>
       <c r="L9" s="2"/>
       <c r="M9" s="30"/>
       <c r="N9" s="26"/>
@@ -13668,16 +13668,16 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="109"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="26"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="109"/>
+      <c r="K10" s="110"/>
       <c r="L10" s="2"/>
       <c r="M10" s="30"/>
       <c r="N10" s="26"/>
@@ -13690,14 +13690,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="108" t="s">
+      <c r="F11" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="109"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="26"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="110"/>
       <c r="L11" s="2"/>
       <c r="M11" s="30"/>
       <c r="N11" s="26"/>
@@ -13710,12 +13710,12 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="110"/>
       <c r="H12" s="26"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
       <c r="L12" s="2"/>
       <c r="M12" s="30"/>
       <c r="N12" s="26"/>
@@ -13730,14 +13730,14 @@
       <c r="E13" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="109"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="26"/>
       <c r="I13" s="28"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="110"/>
       <c r="L13" s="2"/>
       <c r="M13" s="30"/>
       <c r="N13" s="26"/>
@@ -13750,14 +13750,14 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="28"/>
-      <c r="F14" s="108" t="s">
+      <c r="F14" s="109" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="109"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="26"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="110"/>
       <c r="L14" s="2"/>
       <c r="M14" s="30"/>
       <c r="N14" s="26"/>
@@ -13770,12 +13770,12 @@
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
       <c r="H15" s="26"/>
       <c r="I15" s="28"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="110"/>
       <c r="L15" s="2"/>
       <c r="M15" s="30"/>
       <c r="N15" s="26"/>
@@ -13788,12 +13788,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="28"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
       <c r="H16" s="2"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="110"/>
       <c r="L16" s="2"/>
       <c r="M16" s="30"/>
       <c r="N16" s="26"/>
@@ -13806,12 +13806,12 @@
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
       <c r="H17" s="2"/>
       <c r="I17" s="28"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
       <c r="L17" s="2"/>
       <c r="M17" s="30"/>
       <c r="N17" s="26"/>
@@ -14216,6 +14216,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
@@ -14232,15 +14241,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14278,26 +14278,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -15004,26 +15004,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="56" t="s">
         <v>2</v>
       </c>
@@ -15126,20 +15126,20 @@
       <c r="D7" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97" t="s">
+      <c r="F7" s="97"/>
+      <c r="G7" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="97" t="s">
+      <c r="H7" s="97"/>
+      <c r="I7" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="97"/>
       <c r="M7" s="56" t="s">
         <v>23</v>
       </c>
@@ -15161,20 +15161,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="91" t="s">
+      <c r="F8" s="95"/>
+      <c r="G8" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="91" t="s">
+      <c r="H8" s="95"/>
+      <c r="I8" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="92"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
       <c r="M8" s="23" t="s">
         <v>31</v>
       </c>
@@ -15197,18 +15197,18 @@
         <f t="shared" ref="D9:D20" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="91" t="s">
+      <c r="E9" s="93"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="91" t="s">
+      <c r="H9" s="95"/>
+      <c r="I9" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="92"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="95"/>
       <c r="M9" s="23" t="s">
         <v>32</v>
       </c>
@@ -15231,18 +15231,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="91" t="s">
+      <c r="E10" s="93"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="91" t="s">
+      <c r="H10" s="95"/>
+      <c r="I10" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="92"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="95"/>
       <c r="M10" s="23" t="s">
         <v>33</v>
       </c>
@@ -15265,18 +15265,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91" t="s">
+      <c r="E11" s="93"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="91" t="s">
+      <c r="H11" s="95"/>
+      <c r="I11" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="92"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="95"/>
       <c r="M11" s="23" t="s">
         <v>109</v>
       </c>
@@ -15299,20 +15299,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="91" t="s">
+      <c r="F12" s="95"/>
+      <c r="G12" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="91" t="s">
+      <c r="H12" s="95"/>
+      <c r="I12" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="92"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="95"/>
       <c r="M12" s="23" t="s">
         <v>31</v>
       </c>
@@ -15335,18 +15335,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="91" t="s">
+      <c r="E13" s="93"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="92"/>
-      <c r="I13" s="91" t="s">
+      <c r="H13" s="95"/>
+      <c r="I13" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="92"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="95"/>
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
@@ -15369,18 +15369,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="91" t="s">
+      <c r="E14" s="93"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="91" t="s">
+      <c r="H14" s="95"/>
+      <c r="I14" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="92"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="23" t="s">
         <v>33</v>
       </c>
@@ -15403,18 +15403,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="91" t="s">
+      <c r="E15" s="93"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="91" t="s">
+      <c r="H15" s="95"/>
+      <c r="I15" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="92"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="95"/>
       <c r="M15" s="23" t="s">
         <v>33</v>
       </c>
@@ -15437,20 +15437,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="91" t="s">
+      <c r="E16" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="95"/>
+      <c r="G16" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="91" t="s">
+      <c r="H16" s="95"/>
+      <c r="I16" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="92"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="95"/>
       <c r="M16" s="23" t="s">
         <v>116</v>
       </c>
@@ -15473,20 +15473,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="91" t="s">
+      <c r="F17" s="95"/>
+      <c r="G17" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="92"/>
-      <c r="I17" s="91" t="s">
+      <c r="H17" s="95"/>
+      <c r="I17" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="92"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
       <c r="M17" s="23" t="s">
         <v>109</v>
       </c>
@@ -15509,20 +15509,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="91" t="s">
+      <c r="F18" s="95"/>
+      <c r="G18" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="91" t="s">
+      <c r="H18" s="95"/>
+      <c r="I18" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="92"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="95"/>
       <c r="M18" s="23" t="s">
         <v>33</v>
       </c>
@@ -15548,16 +15548,16 @@
         <v>127</v>
       </c>
       <c r="F19" s="58"/>
-      <c r="G19" s="94" t="s">
+      <c r="G19" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="94" t="s">
+      <c r="H19" s="100"/>
+      <c r="I19" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="95"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="100"/>
       <c r="M19" s="23" t="s">
         <v>31</v>
       </c>
@@ -15582,16 +15582,16 @@
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="58"/>
-      <c r="G20" s="94" t="s">
+      <c r="G20" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="95"/>
-      <c r="I20" s="94" t="s">
+      <c r="H20" s="100"/>
+      <c r="I20" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="95"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="100"/>
       <c r="M20" s="23" t="s">
         <v>32</v>
       </c>
@@ -15611,14 +15611,14 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="32" t="s">
@@ -15920,38 +15920,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="46">
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -15966,6 +15934,38 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -16011,26 +16011,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -16111,21 +16111,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="102"/>
+      <c r="E6" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="102" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>67</v>
@@ -16137,21 +16137,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="103"/>
+      <c r="E7" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="101" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -16161,21 +16161,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="103" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105" t="s">
+      <c r="D8" s="103"/>
+      <c r="E8" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="101" t="s">
+      <c r="F8" s="105"/>
+      <c r="G8" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16185,21 +16185,21 @@
     <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105" t="s">
+      <c r="D9" s="103"/>
+      <c r="E9" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="103" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16209,21 +16209,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105" t="s">
+      <c r="D10" s="103"/>
+      <c r="E10" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="101" t="s">
+      <c r="F10" s="105"/>
+      <c r="G10" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16233,21 +16233,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105" t="s">
+      <c r="D11" s="103"/>
+      <c r="E11" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="106"/>
-      <c r="G11" s="101" t="s">
+      <c r="F11" s="105"/>
+      <c r="G11" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16257,21 +16257,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105" t="s">
+      <c r="D12" s="103"/>
+      <c r="E12" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="106"/>
-      <c r="G12" s="101" t="s">
+      <c r="F12" s="105"/>
+      <c r="G12" s="106" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16281,15 +16281,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16299,15 +16299,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>69</v>
@@ -16319,15 +16319,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -16756,13 +16756,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -16779,16 +16782,13 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16823,26 +16823,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -17575,26 +17575,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
@@ -18327,26 +18327,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
@@ -19078,26 +19078,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
@@ -19830,26 +19830,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85" t="str">
+      <c r="B1" s="84"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="91"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>

--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -659,26 +659,6 @@
   </si>
   <si>
     <t>FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概算工数（自動）</t>
-    <rPh sb="0" eb="2">
-      <t>ガイサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>想定規模（行）</t>
-    <rPh sb="5" eb="6">
-      <t>ギョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1183,40 +1163,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>竹本　篤郎</t>
-    <rPh sb="0" eb="2">
-      <t>タケモト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アツロウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>若月</t>
     <rPh sb="0" eb="2">
       <t>ワカツキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1.1.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1.1.3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1.1.4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>出力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1.1.2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1555,6 +1509,43 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹本　篤郎様</t>
+    <rPh sb="0" eb="2">
+      <t>タケモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アツロウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1679,7 +1670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2034,13 +2025,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2227,6 +2231,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2353,26 +2366,47 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7916,8 +7950,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="481853" y="1299882"/>
-          <a:ext cx="6591949" cy="3798795"/>
+          <a:off x="464243" y="1352710"/>
+          <a:ext cx="6512709" cy="4001301"/>
           <a:chOff x="2338706" y="1282467"/>
           <a:chExt cx="6591949" cy="3798795"/>
         </a:xfrm>
@@ -11544,7 +11578,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11933,8 +11967,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11948,7 +11982,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="44" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -11964,12 +11998,12 @@
       <c r="M1" s="37"/>
       <c r="N1" s="37"/>
       <c r="O1" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="62">
-        <v>41792</v>
-      </c>
-      <c r="Q1" s="63"/>
+        <v>73</v>
+      </c>
+      <c r="P1" s="65">
+        <v>41793</v>
+      </c>
+      <c r="Q1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -11986,11 +12020,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75"/>
+      <c r="O2" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -12035,17 +12069,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="E5" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -12056,15 +12090,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12075,15 +12109,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12131,19 +12165,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
+      <c r="D10" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -12152,17 +12186,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -12171,17 +12205,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -12191,17 +12225,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="E13" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -12212,15 +12246,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -12231,15 +12265,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -12250,15 +12284,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -12269,15 +12303,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -12308,15 +12342,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
+      <c r="F19" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
       <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -12329,13 +12363,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
       <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -12348,13 +12382,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
       <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -12367,13 +12401,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
       <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -12386,13 +12420,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
       <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -12405,13 +12439,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
       <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -12424,13 +12458,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -12443,13 +12477,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
       <c r="M26" s="35"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -12505,14 +12539,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
+      <c r="K29" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
       <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -12526,18 +12560,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65" t="s">
+      <c r="K30" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="P30" s="70"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="73"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -12551,12 +12585,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="71"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="74"/>
       <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -12570,12 +12604,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="71"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="74"/>
       <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -12589,12 +12623,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="71"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="74"/>
       <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -12608,12 +12642,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="71"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="74"/>
       <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -12627,12 +12661,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="71"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="70"/>
+      <c r="P35" s="74"/>
       <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12646,12 +12680,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="72"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="75"/>
       <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12705,8 +12739,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12721,37 +12755,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="59" t="s">
-        <v>107</v>
+      <c r="M1" s="62" t="s">
+        <v>140</v>
       </c>
       <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
+      <c r="O1" s="120">
+        <v>41793</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -12840,10 +12874,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -13455,10 +13489,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13473,37 +13507,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
+      <c r="O1" s="120">
+        <v>41793</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -13554,7 +13588,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -13593,17 +13627,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97"/>
+      <c r="E7" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="101"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="97"/>
+      <c r="I7" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="101"/>
+      <c r="K7" s="100"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -13618,18 +13652,18 @@
       <c r="E8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="97"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="26"/>
       <c r="I8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="97"/>
+      <c r="K8" s="100"/>
       <c r="L8" s="2"/>
       <c r="M8" s="54"/>
       <c r="N8" s="53"/>
@@ -13644,18 +13678,18 @@
       <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="110"/>
+      <c r="F9" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="117"/>
       <c r="H9" s="26"/>
       <c r="I9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="110"/>
+      <c r="J9" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="117"/>
       <c r="L9" s="2"/>
       <c r="M9" s="30"/>
       <c r="N9" s="26"/>
@@ -13668,16 +13702,16 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="110"/>
+      <c r="F10" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="117"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="109" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="110"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="118" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="119"/>
       <c r="L10" s="2"/>
       <c r="M10" s="30"/>
       <c r="N10" s="26"/>
@@ -13690,14 +13724,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="110"/>
+      <c r="G11" s="117"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
       <c r="L11" s="2"/>
       <c r="M11" s="30"/>
       <c r="N11" s="26"/>
@@ -13709,13 +13743,17 @@
       <c r="B12" s="16"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="E12" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="117"/>
       <c r="H12" s="26"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
       <c r="L12" s="2"/>
       <c r="M12" s="30"/>
       <c r="N12" s="26"/>
@@ -13727,17 +13765,15 @@
       <c r="B13" s="16"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="110"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="119"/>
       <c r="H13" s="26"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
       <c r="L13" s="2"/>
       <c r="M13" s="30"/>
       <c r="N13" s="26"/>
@@ -13749,15 +13785,13 @@
       <c r="B14" s="16"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="110"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="26"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
       <c r="L14" s="2"/>
       <c r="M14" s="30"/>
       <c r="N14" s="26"/>
@@ -13767,15 +13801,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
       <c r="L15" s="2"/>
       <c r="M15" s="30"/>
       <c r="N15" s="26"/>
@@ -13787,13 +13821,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
       <c r="L16" s="2"/>
       <c r="M16" s="30"/>
       <c r="N16" s="26"/>
@@ -13805,17 +13839,17 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -13971,9 +14005,9 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -14111,7 +14145,7 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -14129,7 +14163,7 @@
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -14179,54 +14213,35 @@
       <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="F13:G13"/>
+  <mergeCells count="23">
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
@@ -14235,9 +14250,8 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
@@ -14259,8 +14273,8 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14278,40 +14292,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P1" s="19">
-        <v>41792</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14354,7 +14368,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -14445,7 +14459,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -14505,7 +14519,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -14985,8 +14999,8 @@
   </sheetPr>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15004,40 +15018,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="56" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="N1" s="56" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P1" s="19">
-        <v>41792</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15062,7 +15076,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>19</v>
@@ -15085,7 +15099,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15124,22 +15138,22 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="96" t="s">
+      <c r="F7" s="100"/>
+      <c r="G7" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="96" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="97"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="56" t="s">
         <v>23</v>
       </c>
@@ -15149,9 +15163,7 @@
       <c r="O7" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="33" t="s">
-        <v>63</v>
-      </c>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -15161,20 +15173,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="93" t="s">
+      <c r="E8" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="98"/>
+      <c r="G8" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="93" t="s">
+      <c r="H8" s="98"/>
+      <c r="I8" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
       <c r="M8" s="23" t="s">
         <v>31</v>
       </c>
@@ -15184,10 +15196,7 @@
       <c r="O8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="9">
-        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$23,IF(N8="中",$N$24,$N$25))*IF(O8="小",$O$23,IF(O8="中",$O$24,$O$25))))</f>
-        <v>150</v>
-      </c>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
@@ -15197,18 +15206,18 @@
         <f t="shared" ref="D9:D20" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="93" t="s">
+      <c r="E9" s="96"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="93" t="s">
+      <c r="H9" s="98"/>
+      <c r="I9" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="95"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="98"/>
       <c r="M9" s="23" t="s">
         <v>32</v>
       </c>
@@ -15218,10 +15227,7 @@
       <c r="O9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="9">
-        <f t="shared" ref="P9:P20" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$23,IF(N9="中",$N$24,$N$25))*IF(O9="小",$O$23,IF(O9="中",$O$24,$O$25))))</f>
-        <v>60</v>
-      </c>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
@@ -15231,18 +15237,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="93" t="s">
+      <c r="E10" s="96"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="93" t="s">
+      <c r="H10" s="98"/>
+      <c r="I10" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="23" t="s">
         <v>33</v>
       </c>
@@ -15252,10 +15258,7 @@
       <c r="O10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="9">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
@@ -15265,31 +15268,28 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="93" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O11" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
+      <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
@@ -15299,20 +15299,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="93" t="s">
+      <c r="E12" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="98"/>
+      <c r="G12" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="98"/>
       <c r="M12" s="23" t="s">
         <v>31</v>
       </c>
@@ -15320,12 +15320,9 @@
         <v>34</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
@@ -15335,18 +15332,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
@@ -15354,12 +15351,9 @@
         <v>36</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="9">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
@@ -15369,18 +15363,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="93" t="s">
+      <c r="E14" s="96"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="23" t="s">
         <v>33</v>
       </c>
@@ -15390,10 +15384,7 @@
       <c r="O14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="9">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
+      <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
@@ -15403,18 +15394,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="23" t="s">
         <v>33</v>
       </c>
@@ -15424,10 +15415,7 @@
       <c r="O15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="9">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
+      <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
@@ -15437,33 +15425,30 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
+      <c r="E16" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="98"/>
+      <c r="G16" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="98"/>
+      <c r="I16" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="23" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>34</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -15473,33 +15458,30 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="98"/>
+      <c r="G17" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="98"/>
+      <c r="I17" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>34</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -15509,20 +15491,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95"/>
+      <c r="E18" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="98"/>
+      <c r="G18" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="98"/>
+      <c r="I18" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="23" t="s">
         <v>33</v>
       </c>
@@ -15532,10 +15514,7 @@
       <c r="O18" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="9">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -15545,19 +15524,19 @@
         <v>12</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F19" s="58"/>
-      <c r="G19" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="100"/>
+      <c r="G19" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="103"/>
+      <c r="I19" s="102" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="103"/>
       <c r="M19" s="23" t="s">
         <v>31</v>
       </c>
@@ -15567,10 +15546,7 @@
       <c r="O19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="9">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
@@ -15582,16 +15558,16 @@
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="58"/>
-      <c r="G20" s="99" t="s">
+      <c r="G20" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="100"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="103"/>
       <c r="M20" s="23" t="s">
         <v>32</v>
       </c>
@@ -15601,33 +15577,25 @@
       <c r="O20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="9">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="P21" s="9">
-        <f>SUM(P8:P20)</f>
-        <v>2150</v>
-      </c>
+      <c r="O21" s="32"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
@@ -15661,12 +15629,8 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="31">
-        <v>1</v>
-      </c>
-      <c r="O23" s="31">
-        <v>50</v>
-      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
@@ -15683,12 +15647,8 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="61">
-        <v>1.2</v>
-      </c>
-      <c r="O24" s="61">
-        <v>150</v>
-      </c>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -15705,12 +15665,8 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="61">
-        <v>1.4</v>
-      </c>
-      <c r="O25" s="61">
-        <v>300</v>
-      </c>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -15995,8 +15951,8 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16011,40 +15967,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P1" s="19">
-        <v>41792</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16111,24 +16067,24 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="96" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="107" t="s">
+      <c r="F6" s="100"/>
+      <c r="G6" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -16137,21 +16093,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106" t="s">
+      <c r="F7" s="109"/>
+      <c r="G7" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -16161,21 +16117,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="106"/>
+      <c r="E8" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106" t="s">
+      <c r="F8" s="109"/>
+      <c r="G8" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16185,21 +16141,21 @@
     <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16209,21 +16165,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
+      <c r="C10" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="106"/>
+      <c r="E10" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="109"/>
+      <c r="G10" s="112" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16233,21 +16189,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="103" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="C11" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="106"/>
+      <c r="E11" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="109"/>
+      <c r="G11" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16257,21 +16213,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
+      <c r="C12" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="106"/>
+      <c r="E12" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="109"/>
+      <c r="G12" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16281,15 +16237,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16299,18 +16255,18 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -16319,15 +16275,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -16807,8 +16763,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16823,37 +16779,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="55" t="s">
-        <v>107</v>
+      <c r="M1" s="62" t="s">
+        <v>138</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
+      <c r="O1" s="120">
+        <v>41793</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -16942,10 +16898,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -17559,8 +17515,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17575,37 +17531,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
+      <c r="O1" s="120">
+        <v>41793</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -17694,7 +17650,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>46</v>
@@ -18311,8 +18267,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18327,37 +18283,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="55" t="s">
-        <v>107</v>
+      <c r="M1" s="62" t="s">
+        <v>139</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
+      <c r="O1" s="120">
+        <v>41793</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -18446,10 +18402,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -19062,8 +19018,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19078,37 +19034,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="59" t="s">
-        <v>107</v>
+      <c r="M1" s="62" t="s">
+        <v>139</v>
       </c>
       <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
+      <c r="O1" s="120">
+        <v>41793</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -19197,10 +19153,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -19814,8 +19770,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19830,37 +19786,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
+      <c r="O1" s="120">
+        <v>41793</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -19949,10 +19905,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
@@ -5,75 +5,45 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8850" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
     <sheet name="概略" sheetId="5" r:id="rId2"/>
-    <sheet name="機能" sheetId="4" r:id="rId3"/>
-    <sheet name="画面１" sheetId="1" r:id="rId4"/>
-    <sheet name="画面２" sheetId="10" r:id="rId5"/>
-    <sheet name="画面3" sheetId="17" r:id="rId6"/>
-    <sheet name="画面4" sheetId="16" r:id="rId7"/>
-    <sheet name="画面5" sheetId="18" r:id="rId8"/>
-    <sheet name="画面6" sheetId="19" r:id="rId9"/>
-    <sheet name="画面7" sheetId="20" r:id="rId10"/>
-    <sheet name="論理データ" sheetId="11" r:id="rId11"/>
+    <sheet name="画面１" sheetId="1" r:id="rId3"/>
+    <sheet name="画面２" sheetId="10" r:id="rId4"/>
+    <sheet name="画面3" sheetId="17" r:id="rId5"/>
+    <sheet name="画面4" sheetId="16" r:id="rId6"/>
+    <sheet name="画面5" sheetId="18" r:id="rId7"/>
+    <sheet name="画面6" sheetId="19" r:id="rId8"/>
+    <sheet name="画面7" sheetId="20" r:id="rId9"/>
+    <sheet name="論理データ" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">画面２!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">画面3!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">画面4!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">画面5!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">画面6!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">画面7!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">画面２!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">画面3!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">画面4!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">画面5!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">画面6!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">画面7!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_基本!$A$1:$Q$37</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">画面２!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">画面3!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">画面4!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">画面5!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">画面6!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="9">画面7!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">画面２!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">画面3!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">画面4!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">画面5!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">画面6!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">画面7!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>田隈広紀</author>
-  </authors>
-  <commentList>
-    <comment ref="O7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>小：100行未満
-中：100～200行程度
-大：200行以上</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -233,199 +203,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システム機能設計書</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システム機能一覧</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サブ機能名</t>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能概要</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IPO区分</t>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複雑度</t>
-    <rPh sb="0" eb="2">
-      <t>フクザツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面表示</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力情報送信</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン処理</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザの入力情報を元にログイン成否を判断し、成功の場合メニュー画面、失敗の場合ログイン失敗画面を表示</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セイヒ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンダン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムへアクセスしたユーザにログイン画面を表示</t>
-    <rPh sb="19" eb="21">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面にてユーザが入力した情報をログイン処理へ引き渡す</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出力</t>
-  </si>
-  <si>
-    <t>入力</t>
-  </si>
-  <si>
-    <t>処理</t>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
     <t>システム画面設計書</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -552,16 +329,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー画面表示</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -585,27 +352,6 @@
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>規模</t>
-    <rPh sb="0" eb="2">
-      <t>キボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -662,34 +408,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>概算工数（自動）</t>
-    <rPh sb="0" eb="2">
-      <t>ガイサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>想定規模（行）</t>
-    <rPh sb="5" eb="6">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>低</t>
-    <rPh sb="0" eb="1">
-      <t>テイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -938,157 +657,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインが成功した場合メニュー画面に移動する</t>
-    <rPh sb="5" eb="7">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「今いる！」ボタン処理</t>
-    <rPh sb="1" eb="2">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「退出」ボタン処理</t>
-    <rPh sb="1" eb="3">
-      <t>タイシュツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「今いる！」ボタンをクリックすることでログインした人物を滞在表記する</t>
-    <rPh sb="1" eb="2">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジンブツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「戻る」ボタン処理</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン処理にてログインに失敗した場合にログイン失敗画面に遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン失敗画面の戻るボタンを押すことで、ログイン画面に遷移する</t>
-    <rPh sb="4" eb="6">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン失敗画面遷移</t>
-    <rPh sb="4" eb="6">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>小</t>
-  </si>
-  <si>
-    <t>メニュー画面内滞在表示</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>滞在、非滞在学生を区別して表示
 [今いる！][退出]ボタンを表示</t>
     <rPh sb="0" eb="2">
@@ -1212,57 +780,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.1.1.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在「今いる！」ボタンを押している滞在ユーザーと非滞在ユーザを見極められる表記を行う</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出力</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下表に本システムで提供する機能を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本システムの目的は、研究室に誰がいるかリアルタイムで表示することである。</t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -1282,74 +799,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15秒ごとに更新する
-更新データのみ更新される</t>
-    <rPh sb="2" eb="3">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト処理</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「退出」ボタンをクリックすることでログインした人物の滞在表記を取り消す。</t>
-    <rPh sb="1" eb="3">
-      <t>タイシュツ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジンブツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>タイザイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト処理を行った後ログイン画面へ遷移する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リアルタム処理</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1359,75 +808,6 @@
       <t>ショカイ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回登録画面の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回登録者がID、パスワードを入力し所属研究室を選択する画面を表示</t>
-    <rPh sb="0" eb="2">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ケンキュウシツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回登録画面にてユーザが入力した情報をデータベースに登録する</t>
-    <rPh sb="0" eb="2">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1563,7 +943,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1595,28 +975,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="MS UI Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="MS UI Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="MS UI Gothic"/>
       <family val="3"/>
@@ -2040,7 +1398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2101,23 +1459,8 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2132,15 +1475,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2173,19 +1507,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2209,28 +1543,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2260,13 +1582,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2278,16 +1600,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2317,18 +1639,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2337,15 +1647,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11933,7 +11234,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -11947,32 +11248,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>104</v>
+      <c r="A1" s="36" t="s">
+        <v>66</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="50" t="s">
-        <v>75</v>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="42" t="s">
+        <v>49</v>
       </c>
-      <c r="P1" s="62">
+      <c r="P1" s="50">
         <v>41792</v>
       </c>
-      <c r="Q1" s="63"/>
+      <c r="Q1" s="51"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
-      <c r="A2" s="38"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="2"/>
@@ -11986,14 +11287,14 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="74" t="s">
-        <v>103</v>
+      <c r="O2" s="62" t="s">
+        <v>65</v>
       </c>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="2"/>
@@ -12007,12 +11308,12 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="48"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="38"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="2"/>
@@ -12026,71 +11327,71 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="48"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="38"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="79" t="s">
-        <v>70</v>
+      <c r="E5" s="67" t="s">
+        <v>44</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="39"/>
+      <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="39"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="38"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="39"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="2"/>
@@ -12106,10 +11407,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="39"/>
+      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="2"/>
@@ -12125,166 +11426,166 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="39"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="82" t="s">
-        <v>142</v>
+      <c r="D10" s="70" t="s">
+        <v>85</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="39"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="39"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="39"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="81" t="s">
-        <v>141</v>
+      <c r="E13" s="69" t="s">
+        <v>84</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="39"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="38"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="39"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="38"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="39"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="38"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="39"/>
+      <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="39"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="2"/>
@@ -12300,202 +11601,202 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="39"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="73" t="s">
-        <v>71</v>
+      <c r="E19" s="26"/>
+      <c r="F19" s="61" t="s">
+        <v>45</v>
       </c>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="35"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="39"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="38"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="35"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="27"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="39"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="35"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="27"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="39"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="38"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="35"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="39"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="38"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="35"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="27"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="39"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="38"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="35"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="39"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="38"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="35"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="27"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="39"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="35"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="27"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="39"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="38"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="35"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="27"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="39"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="35"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="27"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="39"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="38"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="2"/>
@@ -12505,18 +11806,18 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="76" t="s">
-        <v>76</v>
+      <c r="K29" s="64" t="s">
+        <v>50</v>
       </c>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="39"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="38"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
       <c r="D30" s="2"/>
@@ -12526,22 +11827,22 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="64" t="s">
-        <v>74</v>
+      <c r="K30" s="52" t="s">
+        <v>48</v>
       </c>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65" t="s">
-        <v>72</v>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53" t="s">
+        <v>46</v>
       </c>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65" t="s">
-        <v>73</v>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53" t="s">
+        <v>47</v>
       </c>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="39"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="31"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A31" s="38"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="2"/>
@@ -12551,16 +11852,16 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="39"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="31"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A32" s="38"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="2"/>
@@ -12570,16 +11871,16 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="39"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A33" s="38"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="2"/>
@@ -12589,16 +11890,16 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="39"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="2"/>
@@ -12608,16 +11909,16 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="39"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="31"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="2"/>
@@ -12627,16 +11928,16 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="39"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="2"/>
@@ -12646,32 +11947,32 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="39"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="43"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12705,7 +12006,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -12721,37 +12022,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="60" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
-        <v>37</v>
+      <c r="H1" s="77" t="s">
+        <v>33</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="60" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="59" t="s">
-        <v>107</v>
+      <c r="M1" s="5" t="s">
+        <v>70</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -12779,10 +12080,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -12802,7 +12103,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -12821,15 +12122,15 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -12838,168 +12139,196 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>138</v>
+      <c r="B7" s="16"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="80" t="s">
+        <v>61</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>139</v>
+      <c r="F7" s="82"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="80" t="s">
+        <v>62</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="81"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="81"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="91"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="91"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="91"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="91"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="91"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="91"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="91"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -13007,17 +12336,17 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="91"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
@@ -13025,17 +12354,17 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="91"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -13047,9 +12376,9 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -13065,9 +12394,9 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -13083,9 +12412,9 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -13101,9 +12430,9 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -13119,9 +12448,9 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -13137,9 +12466,9 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -13155,9 +12484,9 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -13173,9 +12502,9 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -13191,789 +12520,9 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
-        <f>表紙_基本!D10</f>
-        <v>滞在管理システム</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="19">
-        <v>41792</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="109" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="110"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="109" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="110"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="110"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="110"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="110"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -14278,37 +12827,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -14354,7 +12903,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -14445,7 +12994,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -14505,7 +13054,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -14979,13 +13528,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -14993,10 +13542,7 @@
   <cols>
     <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
     <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="2.25" style="1"/>
     <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
@@ -15004,37 +13550,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="56" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="55" t="s">
-        <v>110</v>
+      <c r="M1" s="5" t="s">
+        <v>69</v>
       </c>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -15062,7 +13608,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>19</v>
@@ -15085,7 +13631,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15104,1031 +13650,24 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="20" t="s">
-        <v>112</v>
+      <c r="C6" s="83" t="s">
+        <v>32</v>
       </c>
-      <c r="E7" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="96" t="s">
+      <c r="D6" s="83"/>
+      <c r="E6" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="96" t="s">
+      <c r="F6" s="81"/>
+      <c r="G6" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="22">
-        <f>ROW()-7</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="9">
-        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$23,IF(N8="中",$N$24,$N$25))*IF(O8="小",$O$23,IF(O8="中",$O$24,$O$25))))</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="22">
-        <f t="shared" ref="D9:D20" si="0">ROW()-7</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="9">
-        <f t="shared" ref="P9:P20" si="1">IF(N9="",0,IF(O9="",0,IF(N9="低",$N$23,IF(N9="中",$N$24,$N$25))*IF(O9="小",$O$23,IF(O9="中",$O$24,$O$25))))</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="22">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E10" s="93"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="95"/>
-      <c r="I10" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="9">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="95"/>
-      <c r="I12" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="9">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="22">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="95"/>
-      <c r="I14" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="9">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="22">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="9">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="22">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O16" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="22">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" s="9">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="22">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" s="9">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="22">
-        <v>12</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="100"/>
-      <c r="I19" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="9">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="22">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="100"/>
-      <c r="I20" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="N20" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="9">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="P21" s="9">
-        <f>SUM(P8:P20)</f>
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="31">
-        <v>1</v>
-      </c>
-      <c r="O23" s="31">
-        <v>50</v>
-      </c>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="61">
-        <v>1.2</v>
-      </c>
-      <c r="O24" s="61">
-        <v>150</v>
-      </c>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="61">
-        <v>1.4</v>
-      </c>
-      <c r="O25" s="61">
-        <v>300</v>
-      </c>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="D7:O21">
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
-    <filterColumn colId="6" showButton="0"/>
-    <filterColumn colId="7" showButton="0"/>
-  </autoFilter>
-  <mergeCells count="46">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M20">
-      <formula1>"入力,出力,処理,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N20">
-      <formula1>"低,中,高,その他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O20">
-      <formula1>"小,中,大"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:P38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
-        <f>表紙_基本!D10</f>
-        <v>滞在管理システム</v>
-      </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" s="19">
-        <v>41792</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="97"/>
-      <c r="G6" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -16137,21 +13676,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104" t="s">
-        <v>47</v>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85" t="s">
+        <v>28</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106" t="s">
-        <v>42</v>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87" t="s">
+        <v>23</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -16161,21 +13700,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="103" t="s">
-        <v>134</v>
+      <c r="C8" s="84" t="s">
+        <v>77</v>
       </c>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
-        <v>46</v>
+      <c r="D8" s="84"/>
+      <c r="E8" s="85" t="s">
+        <v>27</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106" t="s">
-        <v>43</v>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87" t="s">
+        <v>24</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16185,21 +13724,21 @@
     <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104" t="s">
-        <v>48</v>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85" t="s">
+        <v>29</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="108" t="s">
-        <v>95</v>
+      <c r="F9" s="86"/>
+      <c r="G9" s="89" t="s">
+        <v>57</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16209,21 +13748,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="103" t="s">
-        <v>133</v>
+      <c r="C10" s="84" t="s">
+        <v>76</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104" t="s">
-        <v>127</v>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85" t="s">
+        <v>73</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="106" t="s">
-        <v>135</v>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87" t="s">
+        <v>78</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -16233,21 +13772,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="103" t="s">
-        <v>136</v>
+      <c r="C11" s="84" t="s">
+        <v>79</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104" t="s">
-        <v>132</v>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85" t="s">
+        <v>75</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="106" t="s">
-        <v>137</v>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87" t="s">
+        <v>80</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -16257,21 +13796,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="103" t="s">
-        <v>138</v>
+      <c r="C12" s="84" t="s">
+        <v>81</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104" t="s">
-        <v>139</v>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85" t="s">
+        <v>82</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106" t="s">
-        <v>140</v>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87" t="s">
+        <v>83</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -16281,15 +13820,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -16299,18 +13838,18 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -16319,15 +13858,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -16358,7 +13897,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -16378,7 +13917,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -16800,6 +14339,758 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
+        <f>表紙_基本!D10</f>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -16823,37 +15114,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
-        <v>37</v>
+      <c r="H1" s="77" t="s">
+        <v>18</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="21" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="55" t="s">
-        <v>107</v>
+      <c r="M1" s="47" t="s">
+        <v>69</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -16884,7 +15175,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -16904,7 +15195,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -16923,15 +15214,15 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16940,20 +15231,20 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>81</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>56</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>65</v>
+      <c r="D7" s="21" t="s">
+        <v>27</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -16963,15 +15254,15 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -16981,15 +15272,15 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -16999,15 +15290,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -17017,15 +15308,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -17035,15 +15326,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -17053,15 +15344,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -17071,15 +15362,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -17089,15 +15380,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -17575,37 +15866,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="52" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
-        <v>37</v>
+      <c r="H1" s="77" t="s">
+        <v>18</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="52" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="55" t="s">
-        <v>107</v>
+      <c r="M1" s="47" t="s">
+        <v>69</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -17636,7 +15927,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -17656,7 +15947,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -17675,15 +15966,15 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17692,20 +15983,20 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>82</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>54</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>46</v>
+      <c r="D7" s="21" t="s">
+        <v>53</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -17715,15 +16006,15 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -17733,15 +16024,15 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -17751,15 +16042,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -17769,15 +16060,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -17787,15 +16078,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -17805,15 +16096,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -17823,15 +16114,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -17841,15 +16132,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -18246,7 +16537,6 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -18327,37 +16617,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="51" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
-        <v>37</v>
+      <c r="H1" s="77" t="s">
+        <v>18</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="51" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="55" t="s">
-        <v>107</v>
+      <c r="M1" s="48" t="s">
+        <v>69</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="49" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -18388,7 +16678,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -18408,7 +16698,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18427,15 +16717,15 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18444,20 +16734,20 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>80</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>72</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>79</v>
+      <c r="D7" s="21" t="s">
+        <v>73</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -18467,15 +16757,15 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -18485,15 +16775,15 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -18503,15 +16793,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -18521,15 +16811,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -18539,15 +16829,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -18557,15 +16847,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -18575,15 +16865,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -18593,15 +16883,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -18998,6 +17288,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -19078,37 +17369,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="60" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
-        <v>37</v>
+      <c r="H1" s="77" t="s">
+        <v>18</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="60" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="59" t="s">
-        <v>107</v>
+      <c r="M1" s="48" t="s">
+        <v>69</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="49" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -19139,7 +17430,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -19159,7 +17450,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -19178,15 +17469,15 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19195,20 +17486,20 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>126</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>74</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>127</v>
+      <c r="D7" s="21" t="s">
+        <v>75</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -19218,15 +17509,15 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -19236,15 +17527,15 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -19254,15 +17545,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -19272,15 +17563,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -19290,15 +17581,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -19308,15 +17599,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -19326,15 +17617,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -19344,15 +17635,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -19830,37 +18121,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="str">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="60" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="89" t="s">
-        <v>37</v>
+      <c r="H1" s="77" t="s">
+        <v>18</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="60" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="59" t="s">
-        <v>107</v>
+      <c r="M1" s="48" t="s">
+        <v>69</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="49" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="P1" s="19">
         <v>41792</v>
@@ -19891,7 +18182,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -19911,7 +18202,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -19930,15 +18221,15 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19947,20 +18238,20 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27" t="s">
-        <v>131</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>81</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>132</v>
+      <c r="D7" s="21" t="s">
+        <v>82</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -19970,15 +18261,15 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -19988,15 +18279,15 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -20006,15 +18297,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -20024,15 +18315,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -20042,15 +18333,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -20060,15 +18351,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -20078,15 +18369,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -20096,15 +18387,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
@@ -14,36 +14,69 @@
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
     <sheet name="概略" sheetId="5" r:id="rId2"/>
-    <sheet name="画面１" sheetId="1" r:id="rId3"/>
-    <sheet name="画面２" sheetId="10" r:id="rId4"/>
-    <sheet name="画面3" sheetId="17" r:id="rId5"/>
-    <sheet name="画面4" sheetId="16" r:id="rId6"/>
-    <sheet name="画面5" sheetId="18" r:id="rId7"/>
-    <sheet name="画面6" sheetId="19" r:id="rId8"/>
-    <sheet name="画面7" sheetId="20" r:id="rId9"/>
-    <sheet name="論理データ" sheetId="11" r:id="rId10"/>
+    <sheet name="機能" sheetId="21" r:id="rId3"/>
+    <sheet name="画面１" sheetId="1" r:id="rId4"/>
+    <sheet name="画面２" sheetId="10" r:id="rId5"/>
+    <sheet name="画面3" sheetId="17" r:id="rId6"/>
+    <sheet name="画面4" sheetId="16" r:id="rId7"/>
+    <sheet name="画面5" sheetId="18" r:id="rId8"/>
+    <sheet name="画面6" sheetId="19" r:id="rId9"/>
+    <sheet name="画面7" sheetId="20" r:id="rId10"/>
+    <sheet name="論理データ" sheetId="11" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">画面２!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">画面3!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">画面4!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">画面5!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">画面6!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">画面7!$A$1:$P$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">機能!$D$7:$O$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">画面２!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">画面3!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">画面4!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">画面5!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">画面6!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">画面7!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">機能!$A$1:$P$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_基本!$A$1:$Q$37</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">画面２!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">画面3!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">画面4!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">画面5!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">画面6!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="8">画面7!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">画面２!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">画面3!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">画面4!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">画面5!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">画面6!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">画面7!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>田隈広紀</author>
+  </authors>
+  <commentList>
+    <comment ref="O7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>小：100行未満
+中：100～200行程度
+大：200行以上</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -938,12 +971,606 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>想定規模（行）</t>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>入力</t>
+  </si>
+  <si>
+    <t>初回登録画面にてユーザが入力した情報をデータベースに登録する</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力情報送信</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>出力</t>
+  </si>
+  <si>
+    <t>初回登録者がID、パスワードを入力し所属研究室を選択する画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ケンキュウシツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回登録画面の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+  </si>
+  <si>
+    <t>15秒ごとに更新する
+更新データのみ更新される</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタム処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面の戻るボタンを押すことで、ログイン画面に遷移する</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「戻る」ボタン処理</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理を行った後ログイン画面へ遷移する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>「退出」ボタンをクリックすることでログインした人物の滞在表記を取り消す。</t>
+    <rPh sb="1" eb="3">
+      <t>タイシュツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「退出」ボタン処理</t>
+    <rPh sb="1" eb="3">
+      <t>タイシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「今いる！」ボタンをクリックすることでログインした人物を滞在表記する</t>
+    <rPh sb="1" eb="2">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「今いる！」ボタン処理</t>
+    <rPh sb="1" eb="2">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>現在「今いる！」ボタンを押している滞在ユーザーと非滞在ユーザを見極められる表記を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面内滞在表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインが成功した場合メニュー画面に移動する</t>
+    <rPh sb="5" eb="7">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理にてログインに失敗した場合にログイン失敗画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン失敗画面遷移</t>
+    <rPh sb="4" eb="6">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの入力情報を元にログイン成否を判断し、成功の場合メニュー画面、失敗の場合ログイン失敗画面を表示</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイヒ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面にてユーザが入力した情報をログイン処理へ引き渡す</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムへアクセスしたユーザにログイン画面を表示</t>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面表示</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概算工数（自動）</t>
+    <rPh sb="0" eb="2">
+      <t>ガイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規模</t>
+    <rPh sb="0" eb="2">
+      <t>キボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複雑度</t>
+    <rPh sb="0" eb="2">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPO区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブ機能名</t>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下表に本システムで提供する機能を記す。</t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム機能一覧</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.1.1.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム機能設計書</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,6 +1642,28 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1398,7 +2047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1639,17 +2288,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1660,20 +2306,134 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10882,6 +11642,43 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="表紙_基本"/>
+      <sheetName val="概略"/>
+      <sheetName val="画面１"/>
+      <sheetName val="画面２"/>
+      <sheetName val="画面3"/>
+      <sheetName val="画面4"/>
+      <sheetName val="画面5"/>
+      <sheetName val="画面6"/>
+      <sheetName val="画面7"/>
+      <sheetName val="論理データ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="D10" t="str">
+            <v>滞在管理システム</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -12006,6 +12803,758 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
+        <f>表紙_基本!D10</f>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="19">
+        <v>41792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P39"/>
+  <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
@@ -12142,17 +13691,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="81"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="87"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="81"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="87"/>
       <c r="L7" s="2"/>
       <c r="M7" s="45"/>
       <c r="N7" s="45"/>
@@ -12167,18 +13716,18 @@
       <c r="E8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="21"/>
       <c r="I8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="81"/>
+      <c r="K8" s="87"/>
       <c r="L8" s="2"/>
       <c r="M8" s="46"/>
       <c r="N8" s="45"/>
@@ -12193,18 +13742,18 @@
       <c r="E9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="91"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="21"/>
       <c r="I9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="90" t="s">
+      <c r="J9" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="91"/>
+      <c r="K9" s="90"/>
       <c r="L9" s="2"/>
       <c r="M9" s="25"/>
       <c r="N9" s="21"/>
@@ -12217,16 +13766,16 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="91"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="21"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="90" t="s">
+      <c r="J10" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="91"/>
+      <c r="K10" s="90"/>
       <c r="L10" s="2"/>
       <c r="M10" s="25"/>
       <c r="N10" s="21"/>
@@ -12239,14 +13788,14 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="91"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="21"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
       <c r="L11" s="2"/>
       <c r="M11" s="25"/>
       <c r="N11" s="21"/>
@@ -12259,12 +13808,12 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="21"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
       <c r="L12" s="2"/>
       <c r="M12" s="25"/>
       <c r="N12" s="21"/>
@@ -12279,14 +13828,14 @@
       <c r="E13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="21"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
       <c r="L13" s="2"/>
       <c r="M13" s="25"/>
       <c r="N13" s="21"/>
@@ -12299,14 +13848,14 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="90" t="s">
+      <c r="F14" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="91"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="21"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="2"/>
       <c r="M14" s="25"/>
       <c r="N14" s="21"/>
@@ -12319,12 +13868,12 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="21"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
       <c r="L15" s="2"/>
       <c r="M15" s="25"/>
       <c r="N15" s="21"/>
@@ -12337,12 +13886,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="2"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
       <c r="L16" s="2"/>
       <c r="M16" s="25"/>
       <c r="N16" s="21"/>
@@ -12355,12 +13904,12 @@
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="2"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
       <c r="L17" s="2"/>
       <c r="M17" s="25"/>
       <c r="N17" s="21"/>
@@ -12765,15 +14314,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="J9:K9"/>
@@ -12790,6 +14330,15 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13528,13 +15077,1023 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="104" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="93" customWidth="1"/>
+    <col min="5" max="6" width="10.25" style="93" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="93" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="93" customWidth="1"/>
+    <col min="9" max="15" width="10.25" style="93" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="93" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="93"/>
+    <col min="19" max="19" width="3.25" style="93" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="93"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="str">
+        <f>[1]表紙_基本!D10</f>
+        <v>滞在管理システム</v>
+      </c>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="111">
+        <v>41792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="100"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="101"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="107"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="101"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="101"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="87"/>
+      <c r="I7" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="119" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="113">
+        <f>ROW()-7</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="128" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="126"/>
+      <c r="G8" s="128" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="126"/>
+      <c r="I8" s="128" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="101">
+        <f>IF(N8="",0,IF(O8="",0,IF(N8="低",$N$23,IF(N8="中",$N$24,$N$25))*IF(O8="小",$O$23,IF(O8="中",$O$24,$O$25))))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="113">
+        <f>ROW()-7</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="128"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="126"/>
+      <c r="I9" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="P9" s="101">
+        <f>IF(N9="",0,IF(O9="",0,IF(N9="低",$N$23,IF(N9="中",$N$24,$N$25))*IF(O9="小",$O$23,IF(O9="中",$O$24,$O$25))))</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="113">
+        <f>ROW()-7</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="128"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="126"/>
+      <c r="I10" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="101">
+        <f>IF(N10="",0,IF(O10="",0,IF(N10="低",$N$23,IF(N10="中",$N$24,$N$25))*IF(O10="小",$O$23,IF(O10="中",$O$24,$O$25))))</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="113">
+        <f>ROW()-7</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="128"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="128" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="126"/>
+      <c r="I11" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="114" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="114" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="101">
+        <f>IF(N11="",0,IF(O11="",0,IF(N11="低",$N$23,IF(N11="中",$N$24,$N$25))*IF(O11="小",$O$23,IF(O11="中",$O$24,$O$25))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="113">
+        <f>ROW()-7</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="126"/>
+      <c r="G12" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="126"/>
+      <c r="I12" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="P12" s="101">
+        <f>IF(N12="",0,IF(O12="",0,IF(N12="低",$N$23,IF(N12="中",$N$24,$N$25))*IF(O12="小",$O$23,IF(O12="中",$O$24,$O$25))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="113">
+        <f>ROW()-7</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="128"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="126"/>
+      <c r="I13" s="128" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" s="101">
+        <f>IF(N13="",0,IF(O13="",0,IF(N13="低",$N$23,IF(N13="中",$N$24,$N$25))*IF(O13="小",$O$23,IF(O13="中",$O$24,$O$25))))</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="113">
+        <f>ROW()-7</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="128"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="126"/>
+      <c r="I14" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="101">
+        <f>IF(N14="",0,IF(O14="",0,IF(N14="低",$N$23,IF(N14="中",$N$24,$N$25))*IF(O14="小",$O$23,IF(O14="中",$O$24,$O$25))))</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="107"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="113">
+        <f>ROW()-7</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="128"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="128" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="126"/>
+      <c r="I15" s="128" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="N15" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" s="101">
+        <f>IF(N15="",0,IF(O15="",0,IF(N15="低",$N$23,IF(N15="中",$N$24,$N$25))*IF(O15="小",$O$23,IF(O15="中",$O$24,$O$25))))</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="107"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="113">
+        <f>ROW()-7</f>
+        <v>9</v>
+      </c>
+      <c r="E16" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="126"/>
+      <c r="G16" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="126"/>
+      <c r="I16" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="114" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="101">
+        <f>IF(N16="",0,IF(O16="",0,IF(N16="低",$N$23,IF(N16="中",$N$24,$N$25))*IF(O16="小",$O$23,IF(O16="中",$O$24,$O$25))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="107"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="113">
+        <f>ROW()-7</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="126"/>
+      <c r="G17" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="126"/>
+      <c r="I17" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="114" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="114" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="101">
+        <f>IF(N17="",0,IF(O17="",0,IF(N17="低",$N$23,IF(N17="中",$N$24,$N$25))*IF(O17="小",$O$23,IF(O17="中",$O$24,$O$25))))</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="113">
+        <f>ROW()-7</f>
+        <v>11</v>
+      </c>
+      <c r="E18" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="126"/>
+      <c r="G18" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="126"/>
+      <c r="I18" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="101">
+        <f>IF(N18="",0,IF(O18="",0,IF(N18="低",$N$23,IF(N18="中",$N$24,$N$25))*IF(O18="小",$O$23,IF(O18="中",$O$24,$O$25))))</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="107"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="113">
+        <v>12</v>
+      </c>
+      <c r="E19" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="121"/>
+      <c r="G19" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="123"/>
+      <c r="I19" s="125" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="114" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="101">
+        <f>IF(N19="",0,IF(O19="",0,IF(N19="低",$N$23,IF(N19="中",$N$24,$N$25))*IF(O19="小",$O$23,IF(O19="中",$O$24,$O$25))))</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="113">
+        <f>ROW()-7</f>
+        <v>13</v>
+      </c>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="123"/>
+      <c r="I20" s="125" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="O20" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="101">
+        <f>IF(N20="",0,IF(O20="",0,IF(N20="低",$N$23,IF(N20="中",$N$24,$N$25))*IF(O20="小",$O$23,IF(O20="中",$O$24,$O$25))))</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="42.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" s="101">
+        <f>SUM(P8:P20)</f>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="109"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="103"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="117">
+        <v>1</v>
+      </c>
+      <c r="O23" s="117">
+        <v>50</v>
+      </c>
+      <c r="P23" s="99"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="122">
+        <v>1.2</v>
+      </c>
+      <c r="O24" s="122">
+        <v>150</v>
+      </c>
+      <c r="P24" s="94"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="122">
+        <v>1.4</v>
+      </c>
+      <c r="O25" s="122">
+        <v>300</v>
+      </c>
+      <c r="P25" s="94"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D7:O21">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="46">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E18:F18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O20">
+      <formula1>"小,中,大"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8:N20">
+      <formula1>"低,中,高,その他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8:M20">
+      <formula1>"入力,出力,処理,その他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="M1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -13582,7 +16141,7 @@
       <c r="O1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="19">
+      <c r="P1" s="111">
         <v>41792</v>
       </c>
     </row>
@@ -13650,21 +16209,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="80" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="88" t="s">
+      <c r="F6" s="87"/>
+      <c r="G6" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -13676,21 +16235,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85" t="s">
+      <c r="D7" s="83"/>
+      <c r="E7" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="87" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -13700,21 +16259,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -13724,21 +16283,21 @@
     <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="85" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="89" t="s">
+      <c r="F9" s="85"/>
+      <c r="G9" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -13748,21 +16307,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -13772,21 +16331,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85" t="s">
+      <c r="D11" s="83"/>
+      <c r="E11" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87" t="s">
+      <c r="F11" s="85"/>
+      <c r="G11" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -13796,21 +16355,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85" t="s">
+      <c r="D12" s="83"/>
+      <c r="E12" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87" t="s">
+      <c r="F12" s="85"/>
+      <c r="G12" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -13820,15 +16379,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -13838,15 +16397,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>43</v>
@@ -13858,15 +16417,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -14295,16 +16854,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -14321,765 +16877,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:P39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="74" t="str">
-        <f>表紙_基本!D10</f>
-        <v>滞在管理システム</v>
-      </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="19">
-        <v>41792</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15125,7 +16932,7 @@
       </c>
       <c r="E1" s="75"/>
       <c r="F1" s="76"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="77" t="s">
@@ -15134,13 +16941,13 @@
       <c r="I1" s="78"/>
       <c r="J1" s="78"/>
       <c r="K1" s="79"/>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -15233,10 +17040,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -15877,7 +17684,7 @@
       </c>
       <c r="E1" s="75"/>
       <c r="F1" s="76"/>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="77" t="s">
@@ -15886,13 +17693,13 @@
       <c r="I1" s="78"/>
       <c r="J1" s="78"/>
       <c r="K1" s="79"/>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="44" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="44" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -15985,10 +17792,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -16537,6 +18344,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -16628,7 +18436,7 @@
       </c>
       <c r="E1" s="75"/>
       <c r="F1" s="76"/>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="77" t="s">
@@ -16637,13 +18445,13 @@
       <c r="I1" s="78"/>
       <c r="J1" s="78"/>
       <c r="K1" s="79"/>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -16736,10 +18544,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -17288,7 +19096,6 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -17488,10 +19295,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -18240,10 +20047,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4650" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4650" tabRatio="732" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="147">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1570,6 +1570,13 @@
   </si>
   <si>
     <t>3.1.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若月</t>
+    <rPh sb="0" eb="2">
+      <t>ワカツキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2269,6 +2276,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2359,17 +2369,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2380,29 +2396,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2416,11 +2411,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2428,14 +2432,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12082,7 +12089,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -12115,10 +12122,10 @@
       <c r="O1" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="67">
+      <c r="P1" s="68">
         <v>41795</v>
       </c>
-      <c r="Q1" s="68"/>
+      <c r="Q1" s="69"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
@@ -12135,11 +12142,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="79" t="s">
+      <c r="O2" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
@@ -12184,17 +12191,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -12205,15 +12212,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12224,15 +12231,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12280,19 +12287,19 @@
       <c r="A10" s="38"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="39"/>
@@ -12301,17 +12308,17 @@
       <c r="A11" s="38"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="39"/>
@@ -12320,17 +12327,17 @@
       <c r="A12" s="38"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="39"/>
@@ -12340,17 +12347,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -12361,15 +12368,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -12380,15 +12387,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -12399,15 +12406,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -12418,15 +12425,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -12457,15 +12464,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
       <c r="M19" s="35"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -12478,13 +12485,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="35"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
       <c r="M20" s="35"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -12497,13 +12504,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="35"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
       <c r="M21" s="35"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -12516,13 +12523,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="35"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
       <c r="M22" s="35"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -12535,13 +12542,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="35"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
       <c r="M23" s="35"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -12554,13 +12561,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
       <c r="M24" s="35"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -12573,13 +12580,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
       <c r="M25" s="35"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -12592,13 +12599,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="35"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
       <c r="M26" s="35"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -12654,14 +12661,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="81" t="s">
+      <c r="K29" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="84"/>
       <c r="Q29" s="39"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -12675,18 +12682,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="69" t="s">
+      <c r="K30" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70" t="s">
+      <c r="L30" s="71"/>
+      <c r="M30" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70" t="s">
+      <c r="N30" s="71"/>
+      <c r="O30" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="75"/>
+      <c r="P30" s="76"/>
       <c r="Q30" s="39"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -12700,12 +12707,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="76"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="77"/>
       <c r="Q31" s="39"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -12719,12 +12726,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="76"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="77"/>
       <c r="Q32" s="39"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -12738,12 +12745,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="76"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="77"/>
       <c r="Q33" s="39"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -12757,12 +12764,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="76"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="77"/>
       <c r="Q34" s="39"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -12776,12 +12783,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="76"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="77"/>
       <c r="Q35" s="39"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12795,12 +12802,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="77"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="78"/>
       <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12870,26 +12877,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
@@ -13622,26 +13629,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
@@ -14374,26 +14381,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="60" t="s">
         <v>2</v>
       </c>
@@ -15126,26 +15133,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -15246,17 +15253,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="102"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="102"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -15271,18 +15278,18 @@
       <c r="E8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="102"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="26"/>
       <c r="I8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="101" t="s">
+      <c r="J8" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="102"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="2"/>
       <c r="M8" s="54"/>
       <c r="N8" s="53"/>
@@ -15297,18 +15304,18 @@
       <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="119"/>
+      <c r="G9" s="118"/>
       <c r="H9" s="26"/>
       <c r="I9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="118" t="s">
+      <c r="J9" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="119"/>
+      <c r="K9" s="118"/>
       <c r="L9" s="2"/>
       <c r="M9" s="30"/>
       <c r="N9" s="26"/>
@@ -15321,16 +15328,16 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="119"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="26"/>
       <c r="I10" s="63"/>
-      <c r="J10" s="120" t="s">
+      <c r="J10" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="121"/>
+      <c r="K10" s="122"/>
       <c r="L10" s="2"/>
       <c r="M10" s="30"/>
       <c r="N10" s="26"/>
@@ -15343,14 +15350,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="119"/>
+      <c r="G11" s="118"/>
       <c r="H11" s="26"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
       <c r="L11" s="2"/>
       <c r="M11" s="30"/>
       <c r="N11" s="26"/>
@@ -15365,14 +15372,14 @@
       <c r="E12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="119"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="26"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
       <c r="L12" s="2"/>
       <c r="M12" s="30"/>
       <c r="N12" s="26"/>
@@ -15385,14 +15392,14 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="63"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="121" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="121"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="26"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
       <c r="L13" s="2"/>
       <c r="M13" s="30"/>
       <c r="N13" s="26"/>
@@ -15405,12 +15412,12 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
       <c r="H14" s="26"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="2"/>
       <c r="M14" s="30"/>
       <c r="N14" s="26"/>
@@ -15423,12 +15430,12 @@
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="2"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
       <c r="L15" s="2"/>
       <c r="M15" s="30"/>
       <c r="N15" s="26"/>
@@ -15441,12 +15448,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="2"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
       <c r="L16" s="2"/>
       <c r="M16" s="30"/>
       <c r="N16" s="26"/>
@@ -15851,14 +15858,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="J9:K9"/>
@@ -15874,6 +15873,14 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15893,7 +15900,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15911,26 +15918,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -15940,11 +15947,11 @@
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="122">
+      <c r="O1" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="19">
         <v>41795</v>
-      </c>
-      <c r="P1" s="19">
-        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16619,7 +16626,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16637,26 +16644,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="62" t="s">
         <v>2</v>
       </c>
@@ -16666,11 +16673,11 @@
       <c r="N1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="122">
+      <c r="O1" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="19">
         <v>41795</v>
-      </c>
-      <c r="P1" s="19">
-        <v>41792</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17335,26 +17342,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="65" t="s">
         <v>2</v>
       </c>
@@ -18033,26 +18040,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="56" t="s">
         <v>2</v>
       </c>
@@ -18155,20 +18162,20 @@
       <c r="D7" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="101" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="101" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="102"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="56" t="s">
         <v>23</v>
       </c>
@@ -18191,17 +18198,17 @@
       <c r="E8" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="100"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="99"/>
       <c r="M8" s="23" t="s">
         <v>31</v>
       </c>
@@ -18222,17 +18229,17 @@
         <v>2</v>
       </c>
       <c r="E9" s="98"/>
-      <c r="F9" s="100"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="100"/>
+      <c r="H9" s="99"/>
       <c r="I9" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="23" t="s">
         <v>32</v>
       </c>
@@ -18253,17 +18260,17 @@
         <v>3</v>
       </c>
       <c r="E10" s="98"/>
-      <c r="F10" s="100"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="100"/>
+      <c r="H10" s="99"/>
       <c r="I10" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="23" t="s">
         <v>33</v>
       </c>
@@ -18284,17 +18291,17 @@
         <v>4</v>
       </c>
       <c r="E11" s="98"/>
-      <c r="F11" s="100"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="100"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="23" t="s">
         <v>103</v>
       </c>
@@ -18317,17 +18324,17 @@
       <c r="E12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="100"/>
+      <c r="H12" s="99"/>
       <c r="I12" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="99"/>
       <c r="M12" s="23" t="s">
         <v>31</v>
       </c>
@@ -18348,17 +18355,17 @@
         <v>6</v>
       </c>
       <c r="E13" s="98"/>
-      <c r="F13" s="100"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="100"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
@@ -18379,17 +18386,17 @@
         <v>7</v>
       </c>
       <c r="E14" s="98"/>
-      <c r="F14" s="100"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="100"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="99"/>
       <c r="M14" s="23" t="s">
         <v>33</v>
       </c>
@@ -18410,17 +18417,17 @@
         <v>8</v>
       </c>
       <c r="E15" s="98"/>
-      <c r="F15" s="100"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="100"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="99"/>
       <c r="M15" s="23" t="s">
         <v>33</v>
       </c>
@@ -18443,17 +18450,17 @@
       <c r="E16" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="100"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="100"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="99"/>
       <c r="M16" s="23" t="s">
         <v>109</v>
       </c>
@@ -18476,17 +18483,17 @@
       <c r="E17" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="100"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="100"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="23" t="s">
         <v>103</v>
       </c>
@@ -18509,17 +18516,17 @@
       <c r="E18" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="100"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="100"/>
+      <c r="H18" s="99"/>
       <c r="I18" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="23" t="s">
         <v>33</v>
       </c>
@@ -18542,16 +18549,16 @@
         <v>120</v>
       </c>
       <c r="F19" s="58"/>
-      <c r="G19" s="104" t="s">
+      <c r="G19" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="105"/>
-      <c r="I19" s="104" t="s">
+      <c r="H19" s="102"/>
+      <c r="I19" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="105"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="23" t="s">
         <v>31</v>
       </c>
@@ -18573,16 +18580,16 @@
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="58"/>
-      <c r="G20" s="104" t="s">
+      <c r="G20" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="104" t="s">
+      <c r="H20" s="102"/>
+      <c r="I20" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="105"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="102"/>
       <c r="M20" s="23" t="s">
         <v>32</v>
       </c>
@@ -18599,14 +18606,14 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="32"/>
@@ -18891,6 +18898,38 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="46">
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -18905,38 +18944,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -18982,26 +18989,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -19082,21 +19089,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="101" t="s">
+      <c r="D6" s="116"/>
+      <c r="E6" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="113" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>65</v>
@@ -19108,21 +19115,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="110" t="s">
+      <c r="D7" s="115"/>
+      <c r="E7" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="114" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -19132,21 +19139,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="110" t="s">
+      <c r="D8" s="115"/>
+      <c r="E8" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="114" t="s">
+      <c r="F8" s="114"/>
+      <c r="G8" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -19156,21 +19163,21 @@
     <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="110" t="s">
+      <c r="D9" s="115"/>
+      <c r="E9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="115" t="s">
+      <c r="F9" s="114"/>
+      <c r="G9" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -19180,21 +19187,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="110" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="114" t="s">
+      <c r="F10" s="114"/>
+      <c r="G10" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -19204,21 +19211,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="110" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="114" t="s">
+      <c r="F11" s="114"/>
+      <c r="G11" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -19228,21 +19235,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="110" t="s">
+      <c r="D12" s="115"/>
+      <c r="E12" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="114" t="s">
+      <c r="F12" s="114"/>
+      <c r="G12" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -19252,15 +19259,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -19270,15 +19277,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>67</v>
@@ -19290,15 +19297,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -19727,16 +19734,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -19753,13 +19757,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19794,26 +19801,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -20546,26 +20553,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="52" t="s">
         <v>2</v>
       </c>
@@ -21282,7 +21289,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -21298,26 +21305,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="92" t="str">
         <f>表紙_基本!D10</f>
         <v>滞在管理システム</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
       <c r="L1" s="51" t="s">
         <v>2</v>
       </c>

--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4650" tabRatio="732" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4650" tabRatio="732" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -2369,14 +2369,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2387,17 +2399,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2411,31 +2426,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12089,7 +12089,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -15117,7 +15117,7 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -15253,17 +15253,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="105"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="103"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -15278,18 +15278,18 @@
       <c r="E8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="105"/>
+      <c r="G8" s="103"/>
       <c r="H8" s="26"/>
       <c r="I8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="105"/>
+      <c r="K8" s="103"/>
       <c r="L8" s="2"/>
       <c r="M8" s="54"/>
       <c r="N8" s="53"/>
@@ -15304,18 +15304,18 @@
       <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="118"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="26"/>
       <c r="I9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="118"/>
+      <c r="K9" s="120"/>
       <c r="L9" s="2"/>
       <c r="M9" s="30"/>
       <c r="N9" s="26"/>
@@ -15328,10 +15328,10 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="118"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="26"/>
       <c r="I10" s="63"/>
       <c r="J10" s="121" t="s">
@@ -15350,14 +15350,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="118"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="26"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
       <c r="L11" s="2"/>
       <c r="M11" s="30"/>
       <c r="N11" s="26"/>
@@ -15372,14 +15372,14 @@
       <c r="E12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="117" t="s">
+      <c r="F12" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="118"/>
+      <c r="G12" s="120"/>
       <c r="H12" s="26"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
       <c r="L12" s="2"/>
       <c r="M12" s="30"/>
       <c r="N12" s="26"/>
@@ -15398,8 +15398,8 @@
       <c r="G13" s="122"/>
       <c r="H13" s="26"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
       <c r="L13" s="2"/>
       <c r="M13" s="30"/>
       <c r="N13" s="26"/>
@@ -15412,12 +15412,12 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="26"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
       <c r="L14" s="2"/>
       <c r="M14" s="30"/>
       <c r="N14" s="26"/>
@@ -15430,12 +15430,12 @@
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
       <c r="H15" s="2"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
       <c r="L15" s="2"/>
       <c r="M15" s="30"/>
       <c r="N15" s="26"/>
@@ -15448,12 +15448,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="2"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
       <c r="L16" s="2"/>
       <c r="M16" s="30"/>
       <c r="N16" s="26"/>
@@ -15858,6 +15858,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="J9:K9"/>
@@ -15873,14 +15881,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18162,20 +18162,20 @@
       <c r="D7" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="104" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="105"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="56" t="s">
         <v>23</v>
       </c>
@@ -18195,20 +18195,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="98" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="98" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="99" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="100"/>
       <c r="K8" s="100"/>
-      <c r="L8" s="99"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="23" t="s">
         <v>31</v>
       </c>
@@ -18228,18 +18228,18 @@
         <f t="shared" ref="D9:D20" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="98" t="s">
+      <c r="E9" s="99"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="98" t="s">
+      <c r="H9" s="101"/>
+      <c r="I9" s="99" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="100"/>
       <c r="K9" s="100"/>
-      <c r="L9" s="99"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="23" t="s">
         <v>32</v>
       </c>
@@ -18259,18 +18259,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="98" t="s">
+      <c r="E10" s="99"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="99" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="100"/>
       <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="23" t="s">
         <v>33</v>
       </c>
@@ -18290,18 +18290,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="98" t="s">
+      <c r="E11" s="99"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98" t="s">
+      <c r="H11" s="101"/>
+      <c r="I11" s="99" t="s">
         <v>87</v>
       </c>
       <c r="J11" s="100"/>
       <c r="K11" s="100"/>
-      <c r="L11" s="99"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="23" t="s">
         <v>103</v>
       </c>
@@ -18321,20 +18321,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="98" t="s">
+      <c r="F12" s="101"/>
+      <c r="G12" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="98" t="s">
+      <c r="H12" s="101"/>
+      <c r="I12" s="99" t="s">
         <v>81</v>
       </c>
       <c r="J12" s="100"/>
       <c r="K12" s="100"/>
-      <c r="L12" s="99"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="23" t="s">
         <v>31</v>
       </c>
@@ -18354,18 +18354,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="98" t="s">
+      <c r="E13" s="99"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98" t="s">
+      <c r="H13" s="101"/>
+      <c r="I13" s="99" t="s">
         <v>108</v>
       </c>
       <c r="J13" s="100"/>
       <c r="K13" s="100"/>
-      <c r="L13" s="99"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
@@ -18385,18 +18385,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="98" t="s">
+      <c r="E14" s="99"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="98" t="s">
+      <c r="H14" s="101"/>
+      <c r="I14" s="99" t="s">
         <v>84</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="100"/>
-      <c r="L14" s="99"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="23" t="s">
         <v>33</v>
       </c>
@@ -18416,18 +18416,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="98" t="s">
+      <c r="E15" s="99"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="98" t="s">
+      <c r="H15" s="101"/>
+      <c r="I15" s="99" t="s">
         <v>116</v>
       </c>
       <c r="J15" s="100"/>
       <c r="K15" s="100"/>
-      <c r="L15" s="99"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="23" t="s">
         <v>33</v>
       </c>
@@ -18447,20 +18447,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="98" t="s">
+      <c r="F16" s="101"/>
+      <c r="G16" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="98" t="s">
+      <c r="H16" s="101"/>
+      <c r="I16" s="99" t="s">
         <v>117</v>
       </c>
       <c r="J16" s="100"/>
       <c r="K16" s="100"/>
-      <c r="L16" s="99"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="23" t="s">
         <v>109</v>
       </c>
@@ -18480,20 +18480,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="98" t="s">
+      <c r="F17" s="101"/>
+      <c r="G17" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="98" t="s">
+      <c r="H17" s="101"/>
+      <c r="I17" s="99" t="s">
         <v>88</v>
       </c>
       <c r="J17" s="100"/>
       <c r="K17" s="100"/>
-      <c r="L17" s="99"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="23" t="s">
         <v>103</v>
       </c>
@@ -18513,20 +18513,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="98" t="s">
+      <c r="F18" s="101"/>
+      <c r="G18" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="98" t="s">
+      <c r="H18" s="101"/>
+      <c r="I18" s="99" t="s">
         <v>113</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
-      <c r="L18" s="99"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="23" t="s">
         <v>33</v>
       </c>
@@ -18549,16 +18549,16 @@
         <v>120</v>
       </c>
       <c r="F19" s="58"/>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="101" t="s">
+      <c r="H19" s="106"/>
+      <c r="I19" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="102"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="23" t="s">
         <v>31</v>
       </c>
@@ -18580,16 +18580,16 @@
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="58"/>
-      <c r="G20" s="101" t="s">
+      <c r="G20" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="102"/>
-      <c r="I20" s="101" t="s">
+      <c r="H20" s="106"/>
+      <c r="I20" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="102"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="106"/>
       <c r="M20" s="23" t="s">
         <v>32</v>
       </c>
@@ -18606,14 +18606,14 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="32"/>
@@ -18898,38 +18898,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="46">
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -18944,6 +18912,38 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -19089,21 +19089,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="104" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="109" t="s">
+      <c r="F6" s="103"/>
+      <c r="G6" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>65</v>
@@ -19115,21 +19115,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="113" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="110" t="s">
+      <c r="F7" s="112"/>
+      <c r="G7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -19139,21 +19139,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="113" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="110" t="s">
+      <c r="F8" s="112"/>
+      <c r="G8" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -19163,21 +19163,21 @@
     <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="113" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="114"/>
-      <c r="G9" s="111" t="s">
+      <c r="F9" s="112"/>
+      <c r="G9" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -19187,21 +19187,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="113" t="s">
+      <c r="D10" s="109"/>
+      <c r="E10" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="110" t="s">
+      <c r="F10" s="112"/>
+      <c r="G10" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -19211,21 +19211,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="113" t="s">
+      <c r="D11" s="109"/>
+      <c r="E11" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="114"/>
-      <c r="G11" s="110" t="s">
+      <c r="F11" s="112"/>
+      <c r="G11" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -19235,21 +19235,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="113" t="s">
+      <c r="D12" s="109"/>
+      <c r="E12" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="114"/>
-      <c r="G12" s="110" t="s">
+      <c r="F12" s="112"/>
+      <c r="G12" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -19259,15 +19259,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -19277,15 +19277,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>67</v>
@@ -19297,15 +19297,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -19734,13 +19734,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -19757,16 +19760,13 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21289,7 +21289,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>

--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakatsuki\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4650" tabRatio="732" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4650" tabRatio="732" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -2369,17 +2369,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2390,29 +2396,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2426,16 +2411,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15117,7 +15117,7 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -15253,17 +15253,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="103"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="102" t="s">
+      <c r="I7" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="103"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -15278,18 +15278,18 @@
       <c r="E8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="103"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="26"/>
       <c r="I8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="103"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="2"/>
       <c r="M8" s="54"/>
       <c r="N8" s="53"/>
@@ -15304,18 +15304,18 @@
       <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="119" t="s">
+      <c r="F9" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="120"/>
+      <c r="G9" s="118"/>
       <c r="H9" s="26"/>
       <c r="I9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="119" t="s">
+      <c r="J9" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="120"/>
+      <c r="K9" s="118"/>
       <c r="L9" s="2"/>
       <c r="M9" s="30"/>
       <c r="N9" s="26"/>
@@ -15328,10 +15328,10 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="120"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="26"/>
       <c r="I10" s="63"/>
       <c r="J10" s="121" t="s">
@@ -15350,14 +15350,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="120"/>
+      <c r="G11" s="118"/>
       <c r="H11" s="26"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
       <c r="L11" s="2"/>
       <c r="M11" s="30"/>
       <c r="N11" s="26"/>
@@ -15372,14 +15372,14 @@
       <c r="E12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="120"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="26"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
       <c r="L12" s="2"/>
       <c r="M12" s="30"/>
       <c r="N12" s="26"/>
@@ -15398,8 +15398,8 @@
       <c r="G13" s="122"/>
       <c r="H13" s="26"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
       <c r="L13" s="2"/>
       <c r="M13" s="30"/>
       <c r="N13" s="26"/>
@@ -15412,12 +15412,12 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
       <c r="H14" s="26"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="2"/>
       <c r="M14" s="30"/>
       <c r="N14" s="26"/>
@@ -15430,12 +15430,12 @@
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="2"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
       <c r="L15" s="2"/>
       <c r="M15" s="30"/>
       <c r="N15" s="26"/>
@@ -15448,12 +15448,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="2"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
       <c r="L16" s="2"/>
       <c r="M16" s="30"/>
       <c r="N16" s="26"/>
@@ -15858,14 +15858,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="J9:K9"/>
@@ -15881,6 +15873,14 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18162,20 +18162,20 @@
       <c r="D7" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="102" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="102" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="56" t="s">
         <v>23</v>
       </c>
@@ -18195,20 +18195,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="99" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="99" t="s">
+      <c r="H8" s="99"/>
+      <c r="I8" s="98" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="100"/>
       <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="99"/>
       <c r="M8" s="23" t="s">
         <v>31</v>
       </c>
@@ -18228,18 +18228,18 @@
         <f t="shared" ref="D9:D20" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="99" t="s">
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="99" t="s">
+      <c r="H9" s="99"/>
+      <c r="I9" s="98" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="100"/>
       <c r="K9" s="100"/>
-      <c r="L9" s="101"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="23" t="s">
         <v>32</v>
       </c>
@@ -18259,18 +18259,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="99" t="s">
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="99" t="s">
+      <c r="H10" s="99"/>
+      <c r="I10" s="98" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="100"/>
       <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="23" t="s">
         <v>33</v>
       </c>
@@ -18290,18 +18290,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="99" t="s">
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="99" t="s">
+      <c r="H11" s="99"/>
+      <c r="I11" s="98" t="s">
         <v>87</v>
       </c>
       <c r="J11" s="100"/>
       <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="23" t="s">
         <v>103</v>
       </c>
@@ -18321,20 +18321,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="99" t="s">
+      <c r="F12" s="99"/>
+      <c r="G12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="99" t="s">
+      <c r="H12" s="99"/>
+      <c r="I12" s="98" t="s">
         <v>81</v>
       </c>
       <c r="J12" s="100"/>
       <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="99"/>
       <c r="M12" s="23" t="s">
         <v>31</v>
       </c>
@@ -18354,18 +18354,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="99" t="s">
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="99" t="s">
+      <c r="H13" s="99"/>
+      <c r="I13" s="98" t="s">
         <v>108</v>
       </c>
       <c r="J13" s="100"/>
       <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
@@ -18385,18 +18385,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="99" t="s">
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="99" t="s">
+      <c r="H14" s="99"/>
+      <c r="I14" s="98" t="s">
         <v>84</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="99"/>
       <c r="M14" s="23" t="s">
         <v>33</v>
       </c>
@@ -18416,18 +18416,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="99" t="s">
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="101"/>
-      <c r="I15" s="99" t="s">
+      <c r="H15" s="99"/>
+      <c r="I15" s="98" t="s">
         <v>116</v>
       </c>
       <c r="J15" s="100"/>
       <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
+      <c r="L15" s="99"/>
       <c r="M15" s="23" t="s">
         <v>33</v>
       </c>
@@ -18447,20 +18447,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="99" t="s">
+      <c r="F16" s="99"/>
+      <c r="G16" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="99" t="s">
+      <c r="H16" s="99"/>
+      <c r="I16" s="98" t="s">
         <v>117</v>
       </c>
       <c r="J16" s="100"/>
       <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="99"/>
       <c r="M16" s="23" t="s">
         <v>109</v>
       </c>
@@ -18480,20 +18480,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="99" t="s">
+      <c r="F17" s="99"/>
+      <c r="G17" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="99" t="s">
+      <c r="H17" s="99"/>
+      <c r="I17" s="98" t="s">
         <v>88</v>
       </c>
       <c r="J17" s="100"/>
       <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="23" t="s">
         <v>103</v>
       </c>
@@ -18513,20 +18513,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="99" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="99" t="s">
+      <c r="H18" s="99"/>
+      <c r="I18" s="98" t="s">
         <v>113</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="23" t="s">
         <v>33</v>
       </c>
@@ -18549,16 +18549,16 @@
         <v>120</v>
       </c>
       <c r="F19" s="58"/>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="105" t="s">
+      <c r="H19" s="102"/>
+      <c r="I19" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="106"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="23" t="s">
         <v>31</v>
       </c>
@@ -18580,16 +18580,16 @@
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="58"/>
-      <c r="G20" s="105" t="s">
+      <c r="G20" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="105" t="s">
+      <c r="H20" s="102"/>
+      <c r="I20" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="106"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="102"/>
       <c r="M20" s="23" t="s">
         <v>32</v>
       </c>
@@ -18606,14 +18606,14 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="32"/>
@@ -18898,6 +18898,38 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="46">
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -18912,38 +18944,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -19089,21 +19089,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="102" t="s">
+      <c r="D6" s="116"/>
+      <c r="E6" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="114" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>65</v>
@@ -19115,21 +19115,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="111" t="s">
+      <c r="D7" s="115"/>
+      <c r="E7" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="115" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -19139,21 +19139,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="111" t="s">
+      <c r="D8" s="115"/>
+      <c r="E8" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="115" t="s">
+      <c r="F8" s="114"/>
+      <c r="G8" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -19163,21 +19163,21 @@
     <row r="9" spans="1:16" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="111" t="s">
+      <c r="D9" s="115"/>
+      <c r="E9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="116" t="s">
+      <c r="F9" s="114"/>
+      <c r="G9" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -19187,21 +19187,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="111" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="115" t="s">
+      <c r="F10" s="114"/>
+      <c r="G10" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -19211,21 +19211,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="111" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="115" t="s">
+      <c r="F11" s="114"/>
+      <c r="G11" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -19235,21 +19235,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="111" t="s">
+      <c r="D12" s="115"/>
+      <c r="E12" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="115" t="s">
+      <c r="F12" s="114"/>
+      <c r="G12" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -19259,15 +19259,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -19277,15 +19277,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>67</v>
@@ -19297,15 +19297,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -19734,16 +19734,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -19760,13 +19757,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21289,7 +21289,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
